--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.207905140407515</v>
+        <v>0.3806263333333333</v>
       </c>
       <c r="H2">
-        <v>0.207905140407515</v>
+        <v>1.141879</v>
       </c>
       <c r="I2">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="J2">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N2">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q2">
-        <v>20.51496695975199</v>
+        <v>48.714107669803</v>
       </c>
       <c r="R2">
-        <v>20.51496695975199</v>
+        <v>438.426969028227</v>
       </c>
       <c r="S2">
-        <v>0.1050357183305968</v>
+        <v>0.175047411485817</v>
       </c>
       <c r="T2">
-        <v>0.1050357183305968</v>
+        <v>0.175047411485817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.207905140407515</v>
+        <v>0.3806263333333333</v>
       </c>
       <c r="H3">
-        <v>0.207905140407515</v>
+        <v>1.141879</v>
       </c>
       <c r="I3">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="J3">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N3">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q3">
-        <v>11.71666997481742</v>
+        <v>23.01017095083578</v>
       </c>
       <c r="R3">
-        <v>11.71666997481742</v>
+        <v>207.091538557522</v>
       </c>
       <c r="S3">
-        <v>0.05998882911495369</v>
+        <v>0.08268386829728891</v>
       </c>
       <c r="T3">
-        <v>0.05998882911495369</v>
+        <v>0.08268386829728892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.207905140407515</v>
+        <v>0.3806263333333333</v>
       </c>
       <c r="H4">
-        <v>0.207905140407515</v>
+        <v>1.141879</v>
       </c>
       <c r="I4">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="J4">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N4">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q4">
-        <v>12.29081927366288</v>
+        <v>22.60152138433711</v>
       </c>
       <c r="R4">
-        <v>12.29081927366288</v>
+        <v>203.4136924590341</v>
       </c>
       <c r="S4">
-        <v>0.06292844798694874</v>
+        <v>0.08121544257336388</v>
       </c>
       <c r="T4">
-        <v>0.06292844798694874</v>
+        <v>0.08121544257336388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.207905140407515</v>
+        <v>0.3806263333333333</v>
       </c>
       <c r="H5">
-        <v>0.207905140407515</v>
+        <v>1.141879</v>
       </c>
       <c r="I5">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="J5">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N5">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q5">
-        <v>5.743732922417482</v>
+        <v>10.75566445144745</v>
       </c>
       <c r="R5">
-        <v>5.743732922417482</v>
+        <v>96.80098006302701</v>
       </c>
       <c r="S5">
-        <v>0.02940765708220823</v>
+        <v>0.03864899330185163</v>
       </c>
       <c r="T5">
-        <v>0.02940765708220823</v>
+        <v>0.03864899330185163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.207905140407515</v>
+        <v>0.3806263333333333</v>
       </c>
       <c r="H6">
-        <v>0.207905140407515</v>
+        <v>1.141879</v>
       </c>
       <c r="I6">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="J6">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N6">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q6">
-        <v>0.3609435658271281</v>
+        <v>0.9400143316184444</v>
       </c>
       <c r="R6">
-        <v>0.3609435658271281</v>
+        <v>8.460128984565999</v>
       </c>
       <c r="S6">
-        <v>0.001848015002307261</v>
+        <v>0.00337781154947397</v>
       </c>
       <c r="T6">
-        <v>0.001848015002307261</v>
+        <v>0.00337781154947397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.178160191763545</v>
+        <v>0.1805836666666667</v>
       </c>
       <c r="H7">
-        <v>0.178160191763545</v>
+        <v>0.541751</v>
       </c>
       <c r="I7">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982336</v>
       </c>
       <c r="J7">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N7">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q7">
-        <v>17.57989456349244</v>
+        <v>23.111832816107</v>
       </c>
       <c r="R7">
-        <v>17.57989456349244</v>
+        <v>208.006495344963</v>
       </c>
       <c r="S7">
-        <v>0.09000827821342518</v>
+        <v>0.08304917615601375</v>
       </c>
       <c r="T7">
-        <v>0.09000827821342518</v>
+        <v>0.08304917615601376</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.178160191763545</v>
+        <v>0.1805836666666667</v>
       </c>
       <c r="H8">
-        <v>0.178160191763545</v>
+        <v>0.541751</v>
       </c>
       <c r="I8">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982336</v>
       </c>
       <c r="J8">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N8">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q8">
-        <v>10.04036824415231</v>
+        <v>10.91690373742422</v>
       </c>
       <c r="R8">
-        <v>10.04036824415231</v>
+        <v>98.252133636818</v>
       </c>
       <c r="S8">
-        <v>0.05140623881565346</v>
+        <v>0.03922838438567008</v>
       </c>
       <c r="T8">
-        <v>0.05140623881565346</v>
+        <v>0.03922838438567008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.178160191763545</v>
+        <v>0.1805836666666667</v>
       </c>
       <c r="H9">
-        <v>0.178160191763545</v>
+        <v>0.541751</v>
       </c>
       <c r="I9">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982336</v>
       </c>
       <c r="J9">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N9">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q9">
-        <v>10.53237411270714</v>
+        <v>10.72302477888289</v>
       </c>
       <c r="R9">
-        <v>10.53237411270714</v>
+        <v>96.507223009946</v>
       </c>
       <c r="S9">
-        <v>0.05392528697829065</v>
+        <v>0.03853170715072478</v>
       </c>
       <c r="T9">
-        <v>0.05392528697829065</v>
+        <v>0.03853170715072478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.178160191763545</v>
+        <v>0.1805836666666667</v>
       </c>
       <c r="H10">
-        <v>0.178160191763545</v>
+        <v>0.541751</v>
       </c>
       <c r="I10">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982336</v>
       </c>
       <c r="J10">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N10">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q10">
-        <v>4.921978152587788</v>
+        <v>5.102897918462556</v>
       </c>
       <c r="R10">
-        <v>4.921978152587788</v>
+        <v>45.926081266163</v>
       </c>
       <c r="S10">
-        <v>0.02520030921223634</v>
+        <v>0.01833655822575896</v>
       </c>
       <c r="T10">
-        <v>0.02520030921223634</v>
+        <v>0.01833655822575897</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.178160191763545</v>
+        <v>0.1805836666666667</v>
       </c>
       <c r="H11">
-        <v>0.178160191763545</v>
+        <v>0.541751</v>
       </c>
       <c r="I11">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982336</v>
       </c>
       <c r="J11">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982337</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N11">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q11">
-        <v>0.3093034389507305</v>
+        <v>0.4459786931615555</v>
       </c>
       <c r="R11">
-        <v>0.3093034389507305</v>
+        <v>4.013808238454</v>
       </c>
       <c r="S11">
-        <v>0.001583619849646915</v>
+        <v>0.001602562780066078</v>
       </c>
       <c r="T11">
-        <v>0.001583619849646915</v>
+        <v>0.001602562780066078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,49 +1160,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.416011011953767</v>
+        <v>0.01430366666666667</v>
       </c>
       <c r="H12">
-        <v>0.416011011953767</v>
+        <v>0.042911</v>
       </c>
       <c r="I12">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="J12">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N12">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q12">
-        <v>41.04974099435991</v>
+        <v>1.830641490227</v>
       </c>
       <c r="R12">
-        <v>41.04974099435991</v>
+        <v>16.475773412043</v>
       </c>
       <c r="S12">
-        <v>0.2101728480034397</v>
+        <v>0.006578157120209665</v>
       </c>
       <c r="T12">
-        <v>0.2101728480034397</v>
+        <v>0.006578157120209665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.416011011953767</v>
+        <v>0.01430366666666667</v>
       </c>
       <c r="H13">
-        <v>0.416011011953767</v>
+        <v>0.042911</v>
       </c>
       <c r="I13">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="J13">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N13">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q13">
-        <v>23.44465232267977</v>
+        <v>0.8647058450775555</v>
       </c>
       <c r="R13">
-        <v>23.44465232267977</v>
+        <v>7.782352605698</v>
       </c>
       <c r="S13">
-        <v>0.1200355770767244</v>
+        <v>0.003107200914024134</v>
       </c>
       <c r="T13">
-        <v>0.1200355770767244</v>
+        <v>0.003107200914024135</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.416011011953767</v>
+        <v>0.01430366666666667</v>
       </c>
       <c r="H14">
-        <v>0.416011011953767</v>
+        <v>0.042911</v>
       </c>
       <c r="I14">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="J14">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N14">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q14">
-        <v>24.59350525799957</v>
+        <v>0.8493490852562223</v>
       </c>
       <c r="R14">
-        <v>24.59350525799957</v>
+        <v>7.644141767306</v>
       </c>
       <c r="S14">
-        <v>0.1259176530047175</v>
+        <v>0.00305201852058372</v>
       </c>
       <c r="T14">
-        <v>0.1259176530047175</v>
+        <v>0.00305201852058372</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.416011011953767</v>
+        <v>0.01430366666666667</v>
       </c>
       <c r="H15">
-        <v>0.416011011953767</v>
+        <v>0.042911</v>
       </c>
       <c r="I15">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="J15">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N15">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q15">
-        <v>11.49301138376612</v>
+        <v>0.4041902139158889</v>
       </c>
       <c r="R15">
-        <v>11.49301138376612</v>
+        <v>3.637711925243</v>
       </c>
       <c r="S15">
-        <v>0.05884370707707907</v>
+        <v>0.001452401656896882</v>
       </c>
       <c r="T15">
-        <v>0.05884370707707907</v>
+        <v>0.001452401656896882</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01430366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.042911</v>
+      </c>
+      <c r="I16">
+        <v>0.01431671396532707</v>
+      </c>
+      <c r="J16">
+        <v>0.01431671396532707</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.469651333333333</v>
+      </c>
+      <c r="N16">
+        <v>7.408954</v>
+      </c>
+      <c r="O16">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="P16">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="Q16">
+        <v>0.03532506945488888</v>
+      </c>
+      <c r="R16">
+        <v>0.317925625094</v>
+      </c>
+      <c r="S16">
+        <v>0.0001269357536126661</v>
+      </c>
+      <c r="T16">
+        <v>0.0001269357536126661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.423575</v>
+      </c>
+      <c r="H17">
+        <v>1.270725</v>
+      </c>
+      <c r="I17">
+        <v>0.4239613701286439</v>
+      </c>
+      <c r="J17">
+        <v>0.423961370128644</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>127.984071</v>
+      </c>
+      <c r="N17">
+        <v>383.952213</v>
+      </c>
+      <c r="O17">
+        <v>0.4594739502473105</v>
+      </c>
+      <c r="P17">
+        <v>0.4594739502473105</v>
+      </c>
+      <c r="Q17">
+        <v>54.210852873825</v>
+      </c>
+      <c r="R17">
+        <v>487.897675864425</v>
+      </c>
+      <c r="S17">
+        <v>0.1947992054852701</v>
+      </c>
+      <c r="T17">
+        <v>0.1947992054852702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.416011011953767</v>
-      </c>
-      <c r="H16">
-        <v>0.416011011953767</v>
-      </c>
-      <c r="I16">
-        <v>0.5186675994137327</v>
-      </c>
-      <c r="J16">
-        <v>0.5186675994137327</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.73609736209332</v>
-      </c>
-      <c r="N16">
-        <v>1.73609736209332</v>
-      </c>
-      <c r="O16">
-        <v>0.007129449103726268</v>
-      </c>
-      <c r="P16">
-        <v>0.007129449103726268</v>
-      </c>
-      <c r="Q16">
-        <v>0.7222356204547075</v>
-      </c>
-      <c r="R16">
-        <v>0.7222356204547075</v>
-      </c>
-      <c r="S16">
-        <v>0.003697814251772092</v>
-      </c>
-      <c r="T16">
-        <v>0.003697814251772092</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.423575</v>
+      </c>
+      <c r="H18">
+        <v>1.270725</v>
+      </c>
+      <c r="I18">
+        <v>0.4239613701286439</v>
+      </c>
+      <c r="J18">
+        <v>0.423961370128644</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>60.45343933333334</v>
+      </c>
+      <c r="N18">
+        <v>181.360318</v>
+      </c>
+      <c r="O18">
+        <v>0.2170331070069088</v>
+      </c>
+      <c r="P18">
+        <v>0.2170331070069088</v>
+      </c>
+      <c r="Q18">
+        <v>25.60656556561667</v>
+      </c>
+      <c r="R18">
+        <v>230.45909009055</v>
+      </c>
+      <c r="S18">
+        <v>0.09201365340992562</v>
+      </c>
+      <c r="T18">
+        <v>0.09201365340992564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.423575</v>
+      </c>
+      <c r="H19">
+        <v>1.270725</v>
+      </c>
+      <c r="I19">
+        <v>0.4239613701286439</v>
+      </c>
+      <c r="J19">
+        <v>0.423961370128644</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.37981533333334</v>
+      </c>
+      <c r="N19">
+        <v>178.139446</v>
+      </c>
+      <c r="O19">
+        <v>0.2131787034353868</v>
+      </c>
+      <c r="P19">
+        <v>0.2131787034353868</v>
+      </c>
+      <c r="Q19">
+        <v>25.15180527981667</v>
+      </c>
+      <c r="R19">
+        <v>226.36624751835</v>
+      </c>
+      <c r="S19">
+        <v>0.09037953519071446</v>
+      </c>
+      <c r="T19">
+        <v>0.09037953519071446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.423575</v>
+      </c>
+      <c r="H20">
+        <v>1.270725</v>
+      </c>
+      <c r="I20">
+        <v>0.4239613701286439</v>
+      </c>
+      <c r="J20">
+        <v>0.423961370128644</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>28.25780433333334</v>
+      </c>
+      <c r="N20">
+        <v>84.77341300000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1014479761497213</v>
+      </c>
+      <c r="P20">
+        <v>0.1014479761497213</v>
+      </c>
+      <c r="Q20">
+        <v>11.96929947049167</v>
+      </c>
+      <c r="R20">
+        <v>107.723695234425</v>
+      </c>
+      <c r="S20">
+        <v>0.04301002296521383</v>
+      </c>
+      <c r="T20">
+        <v>0.04301002296521384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.423575</v>
+      </c>
+      <c r="H21">
+        <v>1.270725</v>
+      </c>
+      <c r="I21">
+        <v>0.4239613701286439</v>
+      </c>
+      <c r="J21">
+        <v>0.423961370128644</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.469651333333333</v>
+      </c>
+      <c r="N21">
+        <v>7.408954</v>
+      </c>
+      <c r="O21">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="P21">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="Q21">
+        <v>1.046082563516667</v>
+      </c>
+      <c r="R21">
+        <v>9.414743071650001</v>
+      </c>
+      <c r="S21">
+        <v>0.003758953077519869</v>
+      </c>
+      <c r="T21">
+        <v>0.00375895307751987</v>
       </c>
     </row>
   </sheetData>
